--- a/data/GASY_status_goal.xlsx
+++ b/data/GASY_status_goal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/KAHI/participant_1_data/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374B9ED6-1331-1C4B-BA8B-893831AD762B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D117BB-52B4-EF44-9F5E-AB2AD89F8BA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15800" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
+    <workbookView xWindow="35120" yWindow="4440" windowWidth="27640" windowHeight="15800" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -399,9 +399,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -412,12 +412,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/GASY_status_goal.xlsx
+++ b/data/GASY_status_goal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D117BB-52B4-EF44-9F5E-AB2AD89F8BA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6786EE-E920-EA4E-8790-722B70A19AC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35120" yWindow="4440" windowWidth="27640" windowHeight="15800" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
+    <workbookView xWindow="33420" yWindow="4920" windowWidth="28800" windowHeight="16420" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -420,6 +420,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_status_goal.xlsx
+++ b/data/GASY_status_goal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6786EE-E920-EA4E-8790-722B70A19AC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5168999-AA8A-FD45-8153-150AC7848013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33420" yWindow="4920" windowWidth="28800" windowHeight="16420" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,6 +428,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_status_goal.xlsx
+++ b/data/GASY_status_goal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5168999-AA8A-FD45-8153-150AC7848013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B4EF90-5B0D-9C42-B21A-84773CA07B32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33420" yWindow="4920" windowWidth="28800" windowHeight="16420" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -436,6 +436,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_status_goal.xlsx
+++ b/data/GASY_status_goal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B4EF90-5B0D-9C42-B21A-84773CA07B32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22398B2-3D56-0F47-A1E7-2180879BB4F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33420" yWindow="4920" windowWidth="28800" windowHeight="16420" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -444,6 +444,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_status_goal.xlsx
+++ b/data/GASY_status_goal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22398B2-3D56-0F47-A1E7-2180879BB4F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168968EB-448B-6942-98A9-6ABC63AAF0F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33420" yWindow="4920" windowWidth="28800" windowHeight="16420" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -452,6 +452,14 @@
         <v>25</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_status_goal.xlsx
+++ b/data/GASY_status_goal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168968EB-448B-6942-98A9-6ABC63AAF0F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3B8045-F0DD-424C-B7A9-62B566426E3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33420" yWindow="4920" windowWidth="28800" windowHeight="16420" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,6 +460,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_status_goal.xlsx
+++ b/data/GASY_status_goal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3B8045-F0DD-424C-B7A9-62B566426E3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020FFC6A-429D-104D-AFF8-ED6FD55B625B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33420" yWindow="4920" windowWidth="28800" windowHeight="16420" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,6 +468,14 @@
         <v>60</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_status_goal.xlsx
+++ b/data/GASY_status_goal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020FFC6A-429D-104D-AFF8-ED6FD55B625B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8987A661-DD8A-F443-9A52-AD17EF585764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33420" yWindow="4920" windowWidth="28800" windowHeight="16420" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,6 +476,14 @@
         <v>30</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_status_goal.xlsx
+++ b/data/GASY_status_goal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8987A661-DD8A-F443-9A52-AD17EF585764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894C81EE-64A5-F549-B405-9F3BCAA808E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33420" yWindow="4920" windowWidth="28800" windowHeight="16420" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,6 +484,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_status_goal.xlsx
+++ b/data/GASY_status_goal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894C81EE-64A5-F549-B405-9F3BCAA808E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6B9237-FAA2-5A44-86AC-CB6540EE9465}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33420" yWindow="4920" windowWidth="28800" windowHeight="16420" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
+    <workbookView xWindow="33200" yWindow="4180" windowWidth="28800" windowHeight="16160" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -492,6 +492,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_status_goal.xlsx
+++ b/data/GASY_status_goal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6B9237-FAA2-5A44-86AC-CB6540EE9465}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC98E590-FDA2-6A4D-96FE-C03432789F62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33200" yWindow="4180" windowWidth="28800" windowHeight="16160" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -500,6 +500,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GASY_status_goal.xlsx
+++ b/data/GASY_status_goal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/University of Oregon Courses/Dissertation/Dissertation Clients/GASY/participant_2_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC98E590-FDA2-6A4D-96FE-C03432789F62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C519BC2F-3E08-9742-BFFA-867DC87739E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33200" yWindow="4180" windowWidth="28800" windowHeight="16160" xr2:uid="{87C20961-A433-BF4D-865D-2FAA4F538231}"/>
   </bookViews>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B146E135-0E86-5A47-8A84-F143AF03111A}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -508,6 +508,14 @@
         <v>60</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
